--- a/biology/Zoologie/Calospila_apotheta/Calospila_apotheta.xlsx
+++ b/biology/Zoologie/Calospila_apotheta/Calospila_apotheta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila apotheta est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Calospila.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila apotheta a été décrit par Henry Walter Bates en 1868 sous le nom de Lemonias apotheta[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila apotheta a été décrit par Henry Walter Bates en 1868 sous le nom de Lemonias apotheta.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila apotheta est un papillon au dessus de couleur marron doré avec une ornementation de marques marron et une ligne submarginale d'ocelles foncés. Le revers est beige clair avec la même ornementation de marques marron et une ligne submarginale d'ocelles foncés.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,13 +617,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila apotheta est présent dans le nord de l'Amérique du Sud, en Guyane, en Guyana,  au Surinam, en Colombie et au Brésil[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila apotheta est présent dans le nord de l'Amérique du Sud, en Guyane, en Guyana,  au Surinam, en Colombie et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calospila_apotheta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_apotheta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calospila_apotheta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_apotheta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
